--- a/web/toParse/ot.xlsx
+++ b/web/toParse/ot.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -73,15 +73,15 @@
   </si>
   <si>
     <t>17.03.2011 388439</t>
-  </si>
-  <si>
-    <t>01-12-2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,9 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -169,6 +166,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +455,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,22 +469,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -492,10 +492,10 @@
       <c r="A2" s="2">
         <v>3062</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2">
@@ -504,18 +504,18 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
+      <c r="F2" s="6">
+        <v>43435</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3062</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2">
@@ -524,18 +524,18 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
+      <c r="F3" s="6">
+        <v>43435</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3062</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
@@ -544,18 +544,18 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+      <c r="F4" s="6">
+        <v>43435</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3062</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2">
@@ -564,18 +564,18 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
+      <c r="F5" s="6">
+        <v>43435</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3062</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2">
@@ -584,18 +584,18 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
+      <c r="F6" s="6">
+        <v>43435</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3062</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2">
@@ -604,8 +604,8 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
+      <c r="F7" s="6">
+        <v>43435</v>
       </c>
     </row>
   </sheetData>
